--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1317.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1317.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.011855869772766</v>
+        <v>1.022855043411255</v>
       </c>
       <c r="B1">
-        <v>2.388133424579738</v>
+        <v>1.898676156997681</v>
       </c>
       <c r="C1">
-        <v>5.171790750565184</v>
+        <v>7.745347499847412</v>
       </c>
       <c r="D1">
-        <v>2.387310175482149</v>
+        <v>2.277709007263184</v>
       </c>
       <c r="E1">
-        <v>1.263206816495867</v>
+        <v>0.4974815845489502</v>
       </c>
     </row>
   </sheetData>
